--- a/Code/Results/Cases/Case_1_178/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_178/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.28649647993524</v>
+        <v>14.83701644944724</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.730483346276787</v>
+        <v>11.24699344450864</v>
       </c>
       <c r="E2">
-        <v>11.7232245466523</v>
+        <v>16.89970777792428</v>
       </c>
       <c r="F2">
-        <v>19.35900096072222</v>
+        <v>28.18381175807251</v>
       </c>
       <c r="G2">
-        <v>24.31338574263328</v>
+        <v>26.55036001338741</v>
       </c>
       <c r="H2">
-        <v>8.431566357847348</v>
+        <v>13.52405017548072</v>
       </c>
       <c r="I2">
-        <v>14.16835372131505</v>
+        <v>24.31714571321515</v>
       </c>
       <c r="J2">
-        <v>8.131360484663272</v>
+        <v>11.62502896645641</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.922445011388755</v>
+        <v>9.827231030235167</v>
       </c>
       <c r="M2">
-        <v>12.45066949357058</v>
+        <v>15.09242133468871</v>
       </c>
       <c r="N2">
-        <v>13.8943738829962</v>
+        <v>18.78675607785098</v>
       </c>
       <c r="O2">
-        <v>14.38342961305208</v>
+        <v>20.32790489034049</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.37718360413965</v>
+        <v>14.57636004658343</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.78857071221418</v>
+        <v>11.27502430767402</v>
       </c>
       <c r="E3">
-        <v>11.69402414251087</v>
+        <v>16.90984672940891</v>
       </c>
       <c r="F3">
-        <v>18.96616876134386</v>
+        <v>28.21924535121965</v>
       </c>
       <c r="G3">
-        <v>23.16775580542599</v>
+        <v>26.39446825181204</v>
       </c>
       <c r="H3">
-        <v>8.342709178926178</v>
+        <v>13.54779962693691</v>
       </c>
       <c r="I3">
-        <v>14.52568000666689</v>
+        <v>24.44654682276348</v>
       </c>
       <c r="J3">
-        <v>8.082149280605046</v>
+        <v>11.62090311551327</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.375865283312816</v>
+        <v>9.711904924517501</v>
       </c>
       <c r="M3">
-        <v>11.8390658770112</v>
+        <v>14.96268961216196</v>
       </c>
       <c r="N3">
-        <v>13.87909615435159</v>
+        <v>18.8035701488626</v>
       </c>
       <c r="O3">
-        <v>14.01571757446697</v>
+        <v>20.33188376275236</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.79017842064533</v>
+        <v>14.41532735935859</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.82606236727784</v>
+        <v>11.29323882438274</v>
       </c>
       <c r="E4">
-        <v>11.67795863370919</v>
+        <v>16.91717580308636</v>
       </c>
       <c r="F4">
-        <v>18.73773541115018</v>
+        <v>28.24786014031482</v>
       </c>
       <c r="G4">
-        <v>22.4570436321902</v>
+        <v>26.30720427913595</v>
       </c>
       <c r="H4">
-        <v>8.293230360678292</v>
+        <v>13.56474931343558</v>
       </c>
       <c r="I4">
-        <v>14.75160624059314</v>
+        <v>24.5300356459713</v>
       </c>
       <c r="J4">
-        <v>8.052522881687285</v>
+        <v>11.61882375850214</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.046462816716888</v>
+        <v>9.64119651565156</v>
       </c>
       <c r="M4">
-        <v>11.44868831554063</v>
+        <v>14.88377829207912</v>
       </c>
       <c r="N4">
-        <v>13.87353282540189</v>
+        <v>18.81579662716122</v>
       </c>
       <c r="O4">
-        <v>13.79662683940462</v>
+        <v>20.33910700399061</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.54389095404932</v>
+        <v>14.34953458766999</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.841797855844193</v>
+        <v>11.30091435555018</v>
       </c>
       <c r="E5">
-        <v>11.67188338769971</v>
+        <v>16.9204411250671</v>
       </c>
       <c r="F5">
-        <v>18.64791515786985</v>
+        <v>28.26124345252709</v>
       </c>
       <c r="G5">
-        <v>22.16604774009697</v>
+        <v>26.27380435563896</v>
       </c>
       <c r="H5">
-        <v>8.274332935628056</v>
+        <v>13.57225152717519</v>
       </c>
       <c r="I5">
-        <v>14.8453378049309</v>
+        <v>24.5650756488761</v>
       </c>
       <c r="J5">
-        <v>8.040604102911839</v>
+        <v>11.61809140463989</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.917606128633962</v>
+        <v>9.612434809273605</v>
       </c>
       <c r="M5">
-        <v>11.28604931534353</v>
+        <v>14.85183438432961</v>
       </c>
       <c r="N5">
-        <v>13.87221327401672</v>
+        <v>18.82125867469346</v>
       </c>
       <c r="O5">
-        <v>13.7091235365271</v>
+        <v>20.34325301307465</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.50257222546755</v>
+        <v>14.33860175122498</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.844438296561909</v>
+        <v>11.30220416917126</v>
       </c>
       <c r="E6">
-        <v>11.67090316180278</v>
+        <v>16.92100019268637</v>
       </c>
       <c r="F6">
-        <v>18.63319941808274</v>
+        <v>28.26356970587648</v>
       </c>
       <c r="G6">
-        <v>22.11765956352362</v>
+        <v>26.26838977757827</v>
       </c>
       <c r="H6">
-        <v>8.27127106673052</v>
+        <v>13.57353319671965</v>
       </c>
       <c r="I6">
-        <v>14.86100308981141</v>
+        <v>24.57095555765692</v>
       </c>
       <c r="J6">
-        <v>8.038634485934056</v>
+        <v>11.61797676841867</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.896015162461244</v>
+        <v>9.607662906483901</v>
       </c>
       <c r="M6">
-        <v>11.25883418154142</v>
+        <v>14.84654374233936</v>
       </c>
       <c r="N6">
-        <v>13.87205103052663</v>
+        <v>18.82219464931301</v>
       </c>
       <c r="O6">
-        <v>13.694703820238</v>
+        <v>20.34401408207221</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.78688535767361</v>
+        <v>14.41444064178949</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.826272731991509</v>
+        <v>11.29334131416053</v>
       </c>
       <c r="E7">
-        <v>11.67787478766414</v>
+        <v>16.91721871056715</v>
       </c>
       <c r="F7">
-        <v>18.73651076333728</v>
+        <v>28.24803366101816</v>
       </c>
       <c r="G7">
-        <v>22.45312407901993</v>
+        <v>26.30674504364439</v>
       </c>
       <c r="H7">
-        <v>8.292970396857445</v>
+        <v>13.56484808184454</v>
       </c>
       <c r="I7">
-        <v>14.75286356564934</v>
+        <v>24.53050408371347</v>
       </c>
       <c r="J7">
-        <v>8.052361508611929</v>
+        <v>11.61881341496152</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.04473812510021</v>
+        <v>9.640808377069106</v>
       </c>
       <c r="M7">
-        <v>11.44650905460618</v>
+        <v>14.88334658864077</v>
       </c>
       <c r="N7">
-        <v>13.87351120922821</v>
+        <v>18.81586834650988</v>
       </c>
       <c r="O7">
-        <v>13.79543941508217</v>
+        <v>20.33915804961629</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.97898921843023</v>
+        <v>14.74739352855726</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.750131790882538</v>
+        <v>11.25645060573775</v>
       </c>
       <c r="E8">
-        <v>11.71277126659285</v>
+        <v>16.9029752906642</v>
       </c>
       <c r="F8">
-        <v>19.22094064044914</v>
+        <v>28.19460476203997</v>
       </c>
       <c r="G8">
-        <v>23.92014288974575</v>
+        <v>26.49487606194614</v>
       </c>
       <c r="H8">
-        <v>8.39986791650373</v>
+        <v>13.53174751567733</v>
       </c>
       <c r="I8">
-        <v>14.29021973335366</v>
+        <v>24.36092719508436</v>
       </c>
       <c r="J8">
-        <v>8.114273733902815</v>
+        <v>11.62351267455695</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.737950738860837</v>
+        <v>9.787461449771181</v>
       </c>
       <c r="M8">
-        <v>12.24296802303076</v>
+        <v>15.04755095424521</v>
       </c>
       <c r="N8">
-        <v>13.88830645406728</v>
+        <v>18.79215944463661</v>
       </c>
       <c r="O8">
-        <v>14.25531365397763</v>
+        <v>20.32828514280896</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.08476332989669</v>
+        <v>15.38914223499363</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.615397917218013</v>
+        <v>11.19204083461184</v>
       </c>
       <c r="E9">
-        <v>11.79585691310329</v>
+        <v>16.88375209207289</v>
       </c>
       <c r="F9">
-        <v>20.26919011341909</v>
+        <v>28.14431360429498</v>
       </c>
       <c r="G9">
-        <v>26.72196694386761</v>
+        <v>26.92915430502664</v>
       </c>
       <c r="H9">
-        <v>8.65018640687871</v>
+        <v>13.48562929870548</v>
       </c>
       <c r="I9">
-        <v>13.43364824389983</v>
+        <v>24.06028504128787</v>
       </c>
       <c r="J9">
-        <v>8.240096830048723</v>
+        <v>11.63629249060334</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.995706833109979</v>
+        <v>10.07468478935345</v>
       </c>
       <c r="M9">
-        <v>13.68063859626364</v>
+        <v>15.37431242604488</v>
       </c>
       <c r="N9">
-        <v>13.94816082975882</v>
+        <v>18.76070762220257</v>
       </c>
       <c r="O9">
-        <v>15.20586812552266</v>
+        <v>20.34484550505893</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.48642200098036</v>
+        <v>15.84953908691048</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.525444150390496</v>
+        <v>11.14951435875633</v>
       </c>
       <c r="E10">
-        <v>11.86565254991107</v>
+        <v>16.87487125669278</v>
       </c>
       <c r="F10">
-        <v>21.09478270620736</v>
+        <v>28.14062577505364</v>
       </c>
       <c r="G10">
-        <v>28.715933120685</v>
+        <v>27.28549445709483</v>
       </c>
       <c r="H10">
-        <v>8.859260206399126</v>
+        <v>13.46320807789023</v>
       </c>
       <c r="I10">
-        <v>12.83361030023682</v>
+        <v>23.85867004487232</v>
       </c>
       <c r="J10">
-        <v>8.334878809150931</v>
+        <v>11.64780561353245</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.82725091881003</v>
+        <v>10.28392864770607</v>
       </c>
       <c r="M10">
-        <v>14.76112132603951</v>
+        <v>15.61573347652439</v>
       </c>
       <c r="N10">
-        <v>14.01169608336159</v>
+        <v>18.74669549272877</v>
       </c>
       <c r="O10">
-        <v>15.92832856762245</v>
+        <v>20.38000453719854</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.09202757781104</v>
+        <v>16.05572574915369</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.486524406716704</v>
+        <v>11.13120061872054</v>
       </c>
       <c r="E11">
-        <v>11.89926533014672</v>
+        <v>16.87195513062583</v>
       </c>
       <c r="F11">
-        <v>21.48139422837377</v>
+        <v>28.1461648399225</v>
       </c>
       <c r="G11">
-        <v>29.60616256158769</v>
+        <v>27.45508368295715</v>
       </c>
       <c r="H11">
-        <v>8.959868930407259</v>
+        <v>13.4554960045371</v>
       </c>
       <c r="I11">
-        <v>12.56663657601384</v>
+        <v>23.77109569900785</v>
       </c>
       <c r="J11">
-        <v>8.378431776318426</v>
+        <v>11.65349369796175</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.18555418760979</v>
+        <v>10.37840947079751</v>
       </c>
       <c r="M11">
-        <v>15.25211173239439</v>
+        <v>15.7255247053511</v>
       </c>
       <c r="N11">
-        <v>14.04500789470332</v>
+        <v>18.74227951410612</v>
       </c>
       <c r="O11">
-        <v>16.26112397554516</v>
+        <v>20.40095564961137</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.31673053351432</v>
+        <v>16.13326937309173</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.472078418160771</v>
+        <v>11.12441339892636</v>
       </c>
       <c r="E12">
-        <v>11.91225792471299</v>
+        <v>16.87101123418201</v>
       </c>
       <c r="F12">
-        <v>21.62929811835787</v>
+        <v>28.14929819817226</v>
       </c>
       <c r="G12">
-        <v>29.94067561731334</v>
+        <v>27.52032408535676</v>
       </c>
       <c r="H12">
-        <v>8.998757442113238</v>
+        <v>13.45293303668249</v>
       </c>
       <c r="I12">
-        <v>12.46637195452681</v>
+        <v>23.73852627074617</v>
       </c>
       <c r="J12">
-        <v>8.394980674174978</v>
+        <v>11.65571148803101</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.31837578813421</v>
+        <v>10.41405912796539</v>
       </c>
       <c r="M12">
-        <v>15.43406305934251</v>
+        <v>15.76706748608507</v>
       </c>
       <c r="N12">
-        <v>14.05826902114908</v>
+        <v>18.74088740428871</v>
       </c>
       <c r="O12">
-        <v>16.38765830331926</v>
+        <v>20.40959782294935</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.26854274620132</v>
+        <v>16.11659378615917</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.475176553837161</v>
+        <v>11.12586858390928</v>
       </c>
       <c r="E13">
-        <v>11.90944804524202</v>
+        <v>16.87120740604997</v>
       </c>
       <c r="F13">
-        <v>21.59737886500325</v>
+        <v>28.14857734367788</v>
       </c>
       <c r="G13">
-        <v>29.86875009501314</v>
+        <v>27.5062289212093</v>
       </c>
       <c r="H13">
-        <v>8.990346984114</v>
+        <v>13.45346912656541</v>
       </c>
       <c r="I13">
-        <v>12.48792916480711</v>
+        <v>23.74551434127721</v>
       </c>
       <c r="J13">
-        <v>8.391414167252725</v>
+        <v>11.65523102382125</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.28989726006115</v>
+        <v>10.40638745581034</v>
       </c>
       <c r="M13">
-        <v>15.39505309651326</v>
+        <v>15.75812240708789</v>
       </c>
       <c r="N13">
-        <v>14.05538404001761</v>
+        <v>18.74117478519435</v>
       </c>
       <c r="O13">
-        <v>16.36038534281073</v>
+        <v>20.40770514564675</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.11060684094067</v>
+        <v>16.06211640107287</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.485330045659761</v>
+        <v>11.13063927125791</v>
       </c>
       <c r="E14">
-        <v>11.90032896502255</v>
+        <v>16.87187426857897</v>
       </c>
       <c r="F14">
-        <v>21.4935327343914</v>
+        <v>28.14640187742975</v>
       </c>
       <c r="G14">
-        <v>29.6337360581954</v>
+        <v>27.46043092432681</v>
       </c>
       <c r="H14">
-        <v>8.963052483140556</v>
+        <v>13.45527798622608</v>
       </c>
       <c r="I14">
-        <v>12.55837122436246</v>
+        <v>23.76840432031719</v>
       </c>
       <c r="J14">
-        <v>8.379792171043073</v>
+        <v>11.65367488315524</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.19653874164583</v>
+        <v>10.38134510923275</v>
       </c>
       <c r="M14">
-        <v>15.26716054780977</v>
+        <v>15.72894327176243</v>
       </c>
       <c r="N14">
-        <v>14.04608586355854</v>
+        <v>18.74215937881097</v>
       </c>
       <c r="O14">
-        <v>16.27152421950795</v>
+        <v>20.40165247586441</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.01326352520585</v>
+        <v>16.02867584494376</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.491587529681238</v>
+        <v>11.13358068558226</v>
       </c>
       <c r="E15">
-        <v>11.89477756038739</v>
+        <v>16.87230359031749</v>
       </c>
       <c r="F15">
-        <v>21.43011717514318</v>
+        <v>28.14520416684332</v>
       </c>
       <c r="G15">
-        <v>29.48944044750294</v>
+        <v>27.43250954252354</v>
       </c>
       <c r="H15">
-        <v>8.946436677999245</v>
+        <v>13.45643250252495</v>
       </c>
       <c r="I15">
-        <v>12.60162658967567</v>
+        <v>23.78250225735511</v>
       </c>
       <c r="J15">
-        <v>8.372680512554593</v>
+        <v>11.65272998619873</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.13898189298038</v>
+        <v>10.36598847383003</v>
       </c>
       <c r="M15">
-        <v>15.18830546365795</v>
+        <v>15.71106511118501</v>
       </c>
       <c r="N15">
-        <v>14.04047504945511</v>
+        <v>18.74279890720391</v>
       </c>
       <c r="O15">
-        <v>16.2171585466826</v>
+        <v>20.39803715844049</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.44619777660746</v>
+        <v>15.83599305668185</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.528028266376156</v>
+        <v>11.15073191761246</v>
       </c>
       <c r="E16">
-        <v>11.86349303831599</v>
+        <v>16.87508434197926</v>
       </c>
       <c r="F16">
-        <v>21.06973157133902</v>
+        <v>28.14040885730365</v>
       </c>
       <c r="G16">
-        <v>28.65739960225397</v>
+        <v>27.27455733609607</v>
       </c>
       <c r="H16">
-        <v>8.85279582701382</v>
+        <v>13.46376211405011</v>
       </c>
       <c r="I16">
-        <v>12.85117571807887</v>
+        <v>23.86447635911347</v>
       </c>
       <c r="J16">
-        <v>8.332040747553624</v>
+        <v>11.64744287018915</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.80343401689431</v>
+        <v>10.27773760828837</v>
       </c>
       <c r="M16">
-        <v>14.72847648661049</v>
+        <v>15.60855529971079</v>
       </c>
       <c r="N16">
-        <v>14.00960888559882</v>
+        <v>18.7470233675575</v>
       </c>
       <c r="O16">
-        <v>15.90665561305588</v>
+        <v>20.37873472410897</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.09010104899492</v>
+        <v>15.71690685693691</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.550898825543401</v>
+        <v>11.16151749534973</v>
       </c>
       <c r="E17">
-        <v>11.84477538451345</v>
+        <v>16.87707721152724</v>
       </c>
       <c r="F17">
-        <v>20.851413467608</v>
+        <v>28.13931435383089</v>
       </c>
       <c r="G17">
-        <v>28.14251698031466</v>
+        <v>27.17953747165972</v>
       </c>
       <c r="H17">
-        <v>8.796758733053196</v>
+        <v>13.46889553989937</v>
       </c>
       <c r="I17">
-        <v>13.00577936384372</v>
+        <v>23.91582376330679</v>
       </c>
       <c r="J17">
-        <v>8.307216688514536</v>
+        <v>11.64431414345808</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.59247851654193</v>
+        <v>10.22339866656318</v>
       </c>
       <c r="M17">
-        <v>14.4392839451093</v>
+        <v>15.5456404617744</v>
       </c>
       <c r="N17">
-        <v>13.9918118353709</v>
+        <v>18.75011545604647</v>
       </c>
       <c r="O17">
-        <v>15.71717102500848</v>
+        <v>20.36816004929661</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.88227064831663</v>
+        <v>15.64810951235427</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.564241382415664</v>
+        <v>11.16781822300087</v>
       </c>
       <c r="E18">
-        <v>11.8341849985569</v>
+        <v>16.87832931014889</v>
       </c>
       <c r="F18">
-        <v>20.7268872940133</v>
+        <v>28.1393642588742</v>
       </c>
       <c r="G18">
-        <v>27.84479293068921</v>
+        <v>27.12559291071812</v>
       </c>
       <c r="H18">
-        <v>8.765045498767513</v>
+        <v>13.47208230514309</v>
       </c>
       <c r="I18">
-        <v>13.09526850841765</v>
+        <v>23.94574737784749</v>
       </c>
       <c r="J18">
-        <v>8.292979974684133</v>
+        <v>11.6425570645383</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.46926185053935</v>
+        <v>10.19207952249705</v>
       </c>
       <c r="M18">
-        <v>14.27033238823047</v>
+        <v>15.5094521276715</v>
       </c>
       <c r="N18">
-        <v>13.98198972135074</v>
+        <v>18.75207834998746</v>
       </c>
       <c r="O18">
-        <v>15.60857911648472</v>
+        <v>20.36254466951582</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.81138626061917</v>
+        <v>15.62476613844289</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.568791111249853</v>
+        <v>11.16996824396343</v>
       </c>
       <c r="E19">
-        <v>11.83062953274897</v>
+        <v>16.87877146658689</v>
       </c>
       <c r="F19">
-        <v>20.68490696155203</v>
+        <v>28.13949789423285</v>
       </c>
       <c r="G19">
-        <v>27.74372394316474</v>
+        <v>27.10745154366091</v>
       </c>
       <c r="H19">
-        <v>8.754396882152736</v>
+        <v>13.47320151142727</v>
       </c>
       <c r="I19">
-        <v>13.12566592469684</v>
+        <v>23.95594604794697</v>
       </c>
       <c r="J19">
-        <v>8.288166980529152</v>
+        <v>11.64196947359261</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.42721950700785</v>
+        <v>10.18146509205751</v>
       </c>
       <c r="M19">
-        <v>14.21267857207918</v>
+        <v>15.49720000296152</v>
       </c>
       <c r="N19">
-        <v>13.97873488875297</v>
+        <v>18.75277466791431</v>
       </c>
       <c r="O19">
-        <v>15.57188224481814</v>
+        <v>20.36072370943493</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.1283201894243</v>
+        <v>15.72961555343617</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.548444726739872</v>
+        <v>11.16035930183163</v>
       </c>
       <c r="E20">
-        <v>11.84674977241784</v>
+        <v>16.87685412062721</v>
       </c>
       <c r="F20">
-        <v>20.87454632186579</v>
+        <v>28.13936055791556</v>
       </c>
       <c r="G20">
-        <v>28.19749177271714</v>
+        <v>27.18957958645476</v>
       </c>
       <c r="H20">
-        <v>8.802670386800822</v>
+        <v>13.46832484536879</v>
       </c>
       <c r="I20">
-        <v>12.98926324732902</v>
+        <v>23.91031740431891</v>
       </c>
       <c r="J20">
-        <v>8.3098550110823</v>
+        <v>11.64464281205865</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.61512965588688</v>
+        <v>10.22919004460104</v>
       </c>
       <c r="M20">
-        <v>14.47033957788688</v>
+        <v>15.5523382013692</v>
       </c>
       <c r="N20">
-        <v>13.99366339375815</v>
+        <v>18.74976722301884</v>
       </c>
       <c r="O20">
-        <v>15.73730177946928</v>
+        <v>20.36923744918538</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.1571221367466</v>
+        <v>16.0781327630437</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.482339754212958</v>
+        <v>11.12923399811878</v>
       </c>
       <c r="E21">
-        <v>11.90300031917941</v>
+        <v>16.87167405215075</v>
       </c>
       <c r="F21">
-        <v>21.52399474547724</v>
+        <v>28.14701277170685</v>
       </c>
       <c r="G21">
-        <v>29.70283705292591</v>
+        <v>27.47385566455841</v>
       </c>
       <c r="H21">
-        <v>8.971048105385321</v>
+        <v>13.45473698256706</v>
       </c>
       <c r="I21">
-        <v>12.53765831784358</v>
+        <v>23.76166490204073</v>
       </c>
       <c r="J21">
-        <v>8.383204354188244</v>
+        <v>11.65413023474561</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.22403791298793</v>
+        <v>10.38870434198612</v>
       </c>
       <c r="M21">
-        <v>15.30483343726299</v>
+        <v>15.73751500320558</v>
       </c>
       <c r="N21">
-        <v>14.04879931308476</v>
+        <v>18.74186258916993</v>
       </c>
       <c r="O21">
-        <v>16.29761161573497</v>
+        <v>20.40341110331261</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.80253286044378</v>
+        <v>16.30276304308056</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.44084125288038</v>
+        <v>11.10975302072276</v>
       </c>
       <c r="E22">
-        <v>11.94130144799949</v>
+        <v>16.86922279824457</v>
       </c>
       <c r="F22">
-        <v>21.9571682851687</v>
+        <v>28.15805009923668</v>
       </c>
       <c r="G22">
-        <v>30.67147673986424</v>
+        <v>27.66556810790421</v>
       </c>
       <c r="H22">
-        <v>9.085697481430993</v>
+        <v>13.44793967472874</v>
       </c>
       <c r="I22">
-        <v>12.2473474979879</v>
+        <v>23.66796768320614</v>
       </c>
       <c r="J22">
-        <v>8.431467923431194</v>
+        <v>11.6607024359804</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.60533175531522</v>
+        <v>10.49219713305588</v>
       </c>
       <c r="M22">
-        <v>15.82705870266477</v>
+        <v>15.8583348994794</v>
       </c>
       <c r="N22">
-        <v>14.08860886448151</v>
+        <v>18.7383285268488</v>
       </c>
       <c r="O22">
-        <v>16.66675824394522</v>
+        <v>20.42987235900175</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.46053743609929</v>
+        <v>16.18318281519578</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.462832171896076</v>
+        <v>11.12007177152686</v>
       </c>
       <c r="E23">
-        <v>11.92071985027002</v>
+        <v>16.87044600669163</v>
       </c>
       <c r="F23">
-        <v>21.72520452678204</v>
+        <v>28.15160780697861</v>
       </c>
       <c r="G23">
-        <v>30.15593205322665</v>
+        <v>27.56272483855698</v>
       </c>
       <c r="H23">
-        <v>9.024086081957901</v>
+        <v>13.45137703797448</v>
       </c>
       <c r="I23">
-        <v>12.4018585722486</v>
+        <v>23.71766024812073</v>
       </c>
       <c r="J23">
-        <v>8.405681023924119</v>
+        <v>11.65716105097912</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.40334798327661</v>
+        <v>10.43703918683482</v>
       </c>
       <c r="M23">
-        <v>15.55044992259602</v>
+        <v>15.79387890594026</v>
       </c>
       <c r="N23">
-        <v>14.06701220295486</v>
+        <v>18.74006588331957</v>
       </c>
       <c r="O23">
-        <v>16.46949296500584</v>
+        <v>20.41537352149748</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.11105098757875</v>
+        <v>15.72387098410747</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.549553620965979</v>
+        <v>11.160882609742</v>
       </c>
       <c r="E24">
-        <v>11.84585661985416</v>
+        <v>16.87695464860918</v>
       </c>
       <c r="F24">
-        <v>20.8640848750623</v>
+        <v>28.13933755341641</v>
       </c>
       <c r="G24">
-        <v>28.17264298507839</v>
+        <v>27.1850374126701</v>
       </c>
       <c r="H24">
-        <v>8.799996160620898</v>
+        <v>13.46858212280407</v>
       </c>
       <c r="I24">
-        <v>12.99672829562875</v>
+        <v>23.91280557275957</v>
       </c>
       <c r="J24">
-        <v>8.30866211604388</v>
+        <v>11.64449409112479</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.60489510540229</v>
+        <v>10.2265720064895</v>
       </c>
       <c r="M24">
-        <v>14.45630770921409</v>
+        <v>15.54931020644465</v>
       </c>
       <c r="N24">
-        <v>13.99282502920778</v>
+        <v>18.74992408214586</v>
       </c>
       <c r="O24">
-        <v>15.72819958333273</v>
+        <v>20.36874891059811</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.54042702737318</v>
+        <v>15.21718137393312</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.650272519713905</v>
+        <v>11.20862034775239</v>
       </c>
       <c r="E25">
-        <v>11.7718294520461</v>
+        <v>16.88802699188281</v>
       </c>
       <c r="F25">
-        <v>19.97553217199254</v>
+        <v>28.15207806801944</v>
       </c>
       <c r="G25">
-        <v>25.97418541636143</v>
+        <v>26.80492557496258</v>
       </c>
       <c r="H25">
-        <v>8.57806568074326</v>
+        <v>13.49609265737704</v>
       </c>
       <c r="I25">
-        <v>13.66011202916662</v>
+        <v>24.13822042872009</v>
       </c>
       <c r="J25">
-        <v>8.205622031727284</v>
+        <v>11.63245862912303</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.671719052753392</v>
+        <v>9.997184203331038</v>
       </c>
       <c r="M25">
-        <v>13.30578925147486</v>
+        <v>15.28556523368316</v>
       </c>
       <c r="N25">
-        <v>13.9285880385922</v>
+        <v>18.76761337479058</v>
       </c>
       <c r="O25">
-        <v>14.94409277517385</v>
+        <v>20.33631765764735</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_178/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_178/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.83701644944724</v>
+        <v>15.28649647993524</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>11.24699344450864</v>
+        <v>6.730483346276789</v>
       </c>
       <c r="E2">
-        <v>16.89970777792428</v>
+        <v>11.72322454665231</v>
       </c>
       <c r="F2">
-        <v>28.18381175807251</v>
+        <v>19.35900096072216</v>
       </c>
       <c r="G2">
-        <v>26.55036001338741</v>
+        <v>24.31338574263328</v>
       </c>
       <c r="H2">
-        <v>13.52405017548072</v>
+        <v>8.431566357847299</v>
       </c>
       <c r="I2">
-        <v>24.31714571321515</v>
+        <v>14.16835372131498</v>
       </c>
       <c r="J2">
-        <v>11.62502896645641</v>
+        <v>8.131360484663276</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.827231030235167</v>
+        <v>8.922445011388767</v>
       </c>
       <c r="M2">
-        <v>15.09242133468871</v>
+        <v>12.45066949357059</v>
       </c>
       <c r="N2">
-        <v>18.78675607785098</v>
+        <v>13.89437388299616</v>
       </c>
       <c r="O2">
-        <v>20.32790489034049</v>
+        <v>14.38342961305204</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.57636004658343</v>
+        <v>14.37718360413968</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>11.27502430767402</v>
+        <v>6.788570712214045</v>
       </c>
       <c r="E3">
-        <v>16.90984672940891</v>
+        <v>11.69402414251094</v>
       </c>
       <c r="F3">
-        <v>28.21924535121965</v>
+        <v>18.96616876134388</v>
       </c>
       <c r="G3">
-        <v>26.39446825181204</v>
+        <v>23.16775580542608</v>
       </c>
       <c r="H3">
-        <v>13.54779962693691</v>
+        <v>8.342709178926178</v>
       </c>
       <c r="I3">
-        <v>24.44654682276348</v>
+        <v>14.52568000666695</v>
       </c>
       <c r="J3">
-        <v>11.62090311551327</v>
+        <v>8.082149280605142</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.711904924517501</v>
+        <v>8.375865283312791</v>
       </c>
       <c r="M3">
-        <v>14.96268961216196</v>
+        <v>11.83906587701123</v>
       </c>
       <c r="N3">
-        <v>18.8035701488626</v>
+        <v>13.87909615435159</v>
       </c>
       <c r="O3">
-        <v>20.33188376275236</v>
+        <v>14.01571757446701</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.41532735935859</v>
+        <v>13.79017842064537</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>11.29323882438274</v>
+        <v>6.826062367277838</v>
       </c>
       <c r="E4">
-        <v>16.91717580308636</v>
+        <v>11.67795863370931</v>
       </c>
       <c r="F4">
-        <v>28.24786014031482</v>
+        <v>18.73773541115022</v>
       </c>
       <c r="G4">
-        <v>26.30720427913595</v>
+        <v>22.45704363219023</v>
       </c>
       <c r="H4">
-        <v>13.56474931343558</v>
+        <v>8.293230360678292</v>
       </c>
       <c r="I4">
-        <v>24.5300356459713</v>
+        <v>14.75160624059324</v>
       </c>
       <c r="J4">
-        <v>11.61882375850214</v>
+        <v>8.052522881687345</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.64119651565156</v>
+        <v>8.046462816716851</v>
       </c>
       <c r="M4">
-        <v>14.88377829207912</v>
+        <v>11.44868831554065</v>
       </c>
       <c r="N4">
-        <v>18.81579662716122</v>
+        <v>13.87353282540192</v>
       </c>
       <c r="O4">
-        <v>20.33910700399061</v>
+        <v>13.79662683940463</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.34953458766999</v>
+        <v>13.54389095404932</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11.30091435555018</v>
+        <v>6.841797855844259</v>
       </c>
       <c r="E5">
-        <v>16.9204411250671</v>
+        <v>11.67188338769971</v>
       </c>
       <c r="F5">
-        <v>28.26124345252709</v>
+        <v>18.64791515786992</v>
       </c>
       <c r="G5">
-        <v>26.27380435563896</v>
+        <v>22.16604774009696</v>
       </c>
       <c r="H5">
-        <v>13.57225152717519</v>
+        <v>8.274332935628104</v>
       </c>
       <c r="I5">
-        <v>24.5650756488761</v>
+        <v>14.84533780493094</v>
       </c>
       <c r="J5">
-        <v>11.61809140463989</v>
+        <v>8.040604102911839</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.612434809273605</v>
+        <v>7.917606128633961</v>
       </c>
       <c r="M5">
-        <v>14.85183438432961</v>
+        <v>11.28604931534352</v>
       </c>
       <c r="N5">
-        <v>18.82125867469346</v>
+        <v>13.87221327401679</v>
       </c>
       <c r="O5">
-        <v>20.34325301307465</v>
+        <v>13.70912353652711</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.33860175122498</v>
+        <v>13.50257222546755</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>11.30220416917126</v>
+        <v>6.844438296561645</v>
       </c>
       <c r="E6">
-        <v>16.92100019268637</v>
+        <v>11.67090316180265</v>
       </c>
       <c r="F6">
-        <v>28.26356970587648</v>
+        <v>18.63319941808259</v>
       </c>
       <c r="G6">
-        <v>26.26838977757827</v>
+        <v>22.11765956352359</v>
       </c>
       <c r="H6">
-        <v>13.57353319671965</v>
+        <v>8.271271066730485</v>
       </c>
       <c r="I6">
-        <v>24.57095555765692</v>
+        <v>14.86100308981131</v>
       </c>
       <c r="J6">
-        <v>11.61797676841867</v>
+        <v>8.038634485934121</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.607662906483901</v>
+        <v>7.896015162461226</v>
       </c>
       <c r="M6">
-        <v>14.84654374233936</v>
+        <v>11.25883418154139</v>
       </c>
       <c r="N6">
-        <v>18.82219464931301</v>
+        <v>13.87205103052662</v>
       </c>
       <c r="O6">
-        <v>20.34401408207221</v>
+        <v>13.69470382023793</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.41444064178949</v>
+        <v>13.78688535767359</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>11.29334131416053</v>
+        <v>6.826272731991509</v>
       </c>
       <c r="E7">
-        <v>16.91721871056715</v>
+        <v>11.67787478766434</v>
       </c>
       <c r="F7">
-        <v>28.24803366101816</v>
+        <v>18.73651076333726</v>
       </c>
       <c r="G7">
-        <v>26.30674504364439</v>
+        <v>22.45312407901994</v>
       </c>
       <c r="H7">
-        <v>13.56484808184454</v>
+        <v>8.292970396857402</v>
       </c>
       <c r="I7">
-        <v>24.53050408371347</v>
+        <v>14.75286356564945</v>
       </c>
       <c r="J7">
-        <v>11.61881341496152</v>
+        <v>8.052361508612087</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.640808377069106</v>
+        <v>8.044738125100203</v>
       </c>
       <c r="M7">
-        <v>14.88334658864077</v>
+        <v>11.44650905460618</v>
       </c>
       <c r="N7">
-        <v>18.81586834650988</v>
+        <v>13.87351120922823</v>
       </c>
       <c r="O7">
-        <v>20.33915804961629</v>
+        <v>13.79543941508213</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.74739352855726</v>
+        <v>14.97898921843019</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>11.25645060573775</v>
+        <v>6.750131790882538</v>
       </c>
       <c r="E8">
-        <v>16.9029752906642</v>
+        <v>11.71277126659277</v>
       </c>
       <c r="F8">
-        <v>28.19460476203997</v>
+        <v>19.22094064044914</v>
       </c>
       <c r="G8">
-        <v>26.49487606194614</v>
+        <v>23.92014288974579</v>
       </c>
       <c r="H8">
-        <v>13.53174751567733</v>
+        <v>8.399867916503725</v>
       </c>
       <c r="I8">
-        <v>24.36092719508436</v>
+        <v>14.29021973335356</v>
       </c>
       <c r="J8">
-        <v>11.62351267455695</v>
+        <v>8.114273733902747</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.787461449771181</v>
+        <v>8.737950738860818</v>
       </c>
       <c r="M8">
-        <v>15.04755095424521</v>
+        <v>12.24296802303077</v>
       </c>
       <c r="N8">
-        <v>18.79215944463661</v>
+        <v>13.88830645406718</v>
       </c>
       <c r="O8">
-        <v>20.32828514280896</v>
+        <v>14.25531365397763</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.38914223499363</v>
+        <v>17.08476332989668</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>11.19204083461184</v>
+        <v>6.615397917218015</v>
       </c>
       <c r="E9">
-        <v>16.88375209207289</v>
+        <v>11.79585691310329</v>
       </c>
       <c r="F9">
-        <v>28.14431360429498</v>
+        <v>20.26919011341909</v>
       </c>
       <c r="G9">
-        <v>26.92915430502664</v>
+        <v>26.72196694386763</v>
       </c>
       <c r="H9">
-        <v>13.48562929870548</v>
+        <v>8.650186406878655</v>
       </c>
       <c r="I9">
-        <v>24.06028504128787</v>
+        <v>13.43364824389983</v>
       </c>
       <c r="J9">
-        <v>11.63629249060334</v>
+        <v>8.240096830048719</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.07468478935345</v>
+        <v>9.995706833109971</v>
       </c>
       <c r="M9">
-        <v>15.37431242604488</v>
+        <v>13.68063859626362</v>
       </c>
       <c r="N9">
-        <v>18.76070762220257</v>
+        <v>13.94816082975885</v>
       </c>
       <c r="O9">
-        <v>20.34484550505893</v>
+        <v>15.20586812552266</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.84953908691048</v>
+        <v>18.48642200098035</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.14951435875633</v>
+        <v>6.52544415039043</v>
       </c>
       <c r="E10">
-        <v>16.87487125669278</v>
+        <v>11.86565254991113</v>
       </c>
       <c r="F10">
-        <v>28.14062577505364</v>
+        <v>21.09478270620734</v>
       </c>
       <c r="G10">
-        <v>27.28549445709483</v>
+        <v>28.71593312068502</v>
       </c>
       <c r="H10">
-        <v>13.46320807789023</v>
+        <v>8.859260206399126</v>
       </c>
       <c r="I10">
-        <v>23.85867004487232</v>
+        <v>12.83361030023676</v>
       </c>
       <c r="J10">
-        <v>11.64780561353245</v>
+        <v>8.334878809150961</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.28392864770607</v>
+        <v>10.82725091881002</v>
       </c>
       <c r="M10">
-        <v>15.61573347652439</v>
+        <v>14.76112132603951</v>
       </c>
       <c r="N10">
-        <v>18.74669549272877</v>
+        <v>14.01169608336152</v>
       </c>
       <c r="O10">
-        <v>20.38000453719854</v>
+        <v>15.92832856762243</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.05572574915369</v>
+        <v>19.09202757781106</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.13120061872054</v>
+        <v>6.486524406716636</v>
       </c>
       <c r="E11">
-        <v>16.87195513062583</v>
+        <v>11.89926533014666</v>
       </c>
       <c r="F11">
-        <v>28.1461648399225</v>
+        <v>21.48139422837372</v>
       </c>
       <c r="G11">
-        <v>27.45508368295715</v>
+        <v>29.60616256158765</v>
       </c>
       <c r="H11">
-        <v>13.4554960045371</v>
+        <v>8.959868930407252</v>
       </c>
       <c r="I11">
-        <v>23.77109569900785</v>
+        <v>12.56663657601384</v>
       </c>
       <c r="J11">
-        <v>11.65349369796175</v>
+        <v>8.378431776318452</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.37840947079751</v>
+        <v>11.1855541876098</v>
       </c>
       <c r="M11">
-        <v>15.7255247053511</v>
+        <v>15.25211173239439</v>
       </c>
       <c r="N11">
-        <v>18.74227951410612</v>
+        <v>14.04500789470333</v>
       </c>
       <c r="O11">
-        <v>20.40095564961137</v>
+        <v>16.26112397554514</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.13326937309173</v>
+        <v>19.31673053351431</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.12441339892636</v>
+        <v>6.472078418160704</v>
       </c>
       <c r="E12">
-        <v>16.87101123418201</v>
+        <v>11.91225792471298</v>
       </c>
       <c r="F12">
-        <v>28.14929819817226</v>
+        <v>21.62929811835786</v>
       </c>
       <c r="G12">
-        <v>27.52032408535676</v>
+        <v>29.94067561731333</v>
       </c>
       <c r="H12">
-        <v>13.45293303668249</v>
+        <v>8.998757442113241</v>
       </c>
       <c r="I12">
-        <v>23.73852627074617</v>
+        <v>12.46637195452681</v>
       </c>
       <c r="J12">
-        <v>11.65571148803101</v>
+        <v>8.394980674175011</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.41405912796539</v>
+        <v>11.31837578813425</v>
       </c>
       <c r="M12">
-        <v>15.76706748608507</v>
+        <v>15.43406305934253</v>
       </c>
       <c r="N12">
-        <v>18.74088740428871</v>
+        <v>14.05826902114908</v>
       </c>
       <c r="O12">
-        <v>20.40959782294935</v>
+        <v>16.38765830331924</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.11659378615917</v>
+        <v>19.26854274620134</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.12586858390928</v>
+        <v>6.475176553836828</v>
       </c>
       <c r="E13">
-        <v>16.87120740604997</v>
+        <v>11.90944804524201</v>
       </c>
       <c r="F13">
-        <v>28.14857734367788</v>
+        <v>21.59737886500314</v>
       </c>
       <c r="G13">
-        <v>27.5062289212093</v>
+        <v>29.86875009501311</v>
       </c>
       <c r="H13">
-        <v>13.45346912656541</v>
+        <v>8.990346984113987</v>
       </c>
       <c r="I13">
-        <v>23.74551434127721</v>
+        <v>12.48792916480712</v>
       </c>
       <c r="J13">
-        <v>11.65523102382125</v>
+        <v>8.391414167252877</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.40638745581034</v>
+        <v>11.28989726006117</v>
       </c>
       <c r="M13">
-        <v>15.75812240708789</v>
+        <v>15.39505309651328</v>
       </c>
       <c r="N13">
-        <v>18.74117478519435</v>
+        <v>14.05538404001763</v>
       </c>
       <c r="O13">
-        <v>20.40770514564675</v>
+        <v>16.36038534281072</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.06211640107287</v>
+        <v>19.11060684094067</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.13063927125791</v>
+        <v>6.485330045659427</v>
       </c>
       <c r="E14">
-        <v>16.87187426857897</v>
+        <v>11.90032896502247</v>
       </c>
       <c r="F14">
-        <v>28.14640187742975</v>
+        <v>21.49353273439136</v>
       </c>
       <c r="G14">
-        <v>27.46043092432681</v>
+        <v>29.63373605819544</v>
       </c>
       <c r="H14">
-        <v>13.45527798622608</v>
+        <v>8.963052483140563</v>
       </c>
       <c r="I14">
-        <v>23.76840432031719</v>
+        <v>12.55837122436237</v>
       </c>
       <c r="J14">
-        <v>11.65367488315524</v>
+        <v>8.37979217104313</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.38134510923275</v>
+        <v>11.19653874164583</v>
       </c>
       <c r="M14">
-        <v>15.72894327176243</v>
+        <v>15.26716054780978</v>
       </c>
       <c r="N14">
-        <v>18.74215937881097</v>
+        <v>14.04608586355847</v>
       </c>
       <c r="O14">
-        <v>20.40165247586441</v>
+        <v>16.27152421950796</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.02867584494376</v>
+        <v>19.01326352520585</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.13358068558226</v>
+        <v>6.49158752968117</v>
       </c>
       <c r="E15">
-        <v>16.87230359031749</v>
+        <v>11.89477756038738</v>
       </c>
       <c r="F15">
-        <v>28.14520416684332</v>
+        <v>21.43011717514318</v>
       </c>
       <c r="G15">
-        <v>27.43250954252354</v>
+        <v>29.48944044750291</v>
       </c>
       <c r="H15">
-        <v>13.45643250252495</v>
+        <v>8.946436677999237</v>
       </c>
       <c r="I15">
-        <v>23.78250225735511</v>
+        <v>12.6016265896756</v>
       </c>
       <c r="J15">
-        <v>11.65272998619873</v>
+        <v>8.372680512554656</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.36598847383003</v>
+        <v>11.13898189298033</v>
       </c>
       <c r="M15">
-        <v>15.71106511118501</v>
+        <v>15.18830546365793</v>
       </c>
       <c r="N15">
-        <v>18.74279890720391</v>
+        <v>14.04047504945511</v>
       </c>
       <c r="O15">
-        <v>20.39803715844049</v>
+        <v>16.21715854668262</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.83599305668185</v>
+        <v>18.44619777660746</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.15073191761246</v>
+        <v>6.528028266376023</v>
       </c>
       <c r="E16">
-        <v>16.87508434197926</v>
+        <v>11.86349303831592</v>
       </c>
       <c r="F16">
-        <v>28.14040885730365</v>
+        <v>21.06973157133899</v>
       </c>
       <c r="G16">
-        <v>27.27455733609607</v>
+        <v>28.65739960225399</v>
       </c>
       <c r="H16">
-        <v>13.46376211405011</v>
+        <v>8.852795827013811</v>
       </c>
       <c r="I16">
-        <v>23.86447635911347</v>
+        <v>12.85117571807887</v>
       </c>
       <c r="J16">
-        <v>11.64744287018915</v>
+        <v>8.332040747553618</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.27773760828837</v>
+        <v>10.80343401689433</v>
       </c>
       <c r="M16">
-        <v>15.60855529971079</v>
+        <v>14.72847648661049</v>
       </c>
       <c r="N16">
-        <v>18.7470233675575</v>
+        <v>14.00960888559882</v>
       </c>
       <c r="O16">
-        <v>20.37873472410897</v>
+        <v>15.90665561305588</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.71690685693691</v>
+        <v>18.09010104899492</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.16151749534973</v>
+        <v>6.550898825543267</v>
       </c>
       <c r="E17">
-        <v>16.87707721152724</v>
+        <v>11.84477538451337</v>
       </c>
       <c r="F17">
-        <v>28.13931435383089</v>
+        <v>20.85141346760798</v>
       </c>
       <c r="G17">
-        <v>27.17953747165972</v>
+        <v>28.14251698031461</v>
       </c>
       <c r="H17">
-        <v>13.46889553989937</v>
+        <v>8.796758733053162</v>
       </c>
       <c r="I17">
-        <v>23.91582376330679</v>
+        <v>13.00577936384366</v>
       </c>
       <c r="J17">
-        <v>11.64431414345808</v>
+        <v>8.307216688514531</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.22339866656318</v>
+        <v>10.59247851654189</v>
       </c>
       <c r="M17">
-        <v>15.5456404617744</v>
+        <v>14.4392839451093</v>
       </c>
       <c r="N17">
-        <v>18.75011545604647</v>
+        <v>13.9918118353709</v>
       </c>
       <c r="O17">
-        <v>20.36816004929661</v>
+        <v>15.71717102500848</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.64810951235427</v>
+        <v>17.88227064831664</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.16781822300087</v>
+        <v>6.564241382415663</v>
       </c>
       <c r="E18">
-        <v>16.87832931014889</v>
+        <v>11.83418499855697</v>
       </c>
       <c r="F18">
-        <v>28.1393642588742</v>
+        <v>20.72688729401328</v>
       </c>
       <c r="G18">
-        <v>27.12559291071812</v>
+        <v>27.84479293068926</v>
       </c>
       <c r="H18">
-        <v>13.47208230514309</v>
+        <v>8.765045498767478</v>
       </c>
       <c r="I18">
-        <v>23.94574737784749</v>
+        <v>13.09526850841768</v>
       </c>
       <c r="J18">
-        <v>11.6425570645383</v>
+        <v>8.292979974684195</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.19207952249705</v>
+        <v>10.46926185053936</v>
       </c>
       <c r="M18">
-        <v>15.5094521276715</v>
+        <v>14.27033238823049</v>
       </c>
       <c r="N18">
-        <v>18.75207834998746</v>
+        <v>13.9819897213508</v>
       </c>
       <c r="O18">
-        <v>20.36254466951582</v>
+        <v>15.60857911648471</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.62476613844289</v>
+        <v>17.81138626061917</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.16996824396343</v>
+        <v>6.568791111249987</v>
       </c>
       <c r="E19">
-        <v>16.87877146658689</v>
+        <v>11.83062953274896</v>
       </c>
       <c r="F19">
-        <v>28.13949789423285</v>
+        <v>20.68490696155193</v>
       </c>
       <c r="G19">
-        <v>27.10745154366091</v>
+        <v>27.74372394316471</v>
       </c>
       <c r="H19">
-        <v>13.47320151142727</v>
+        <v>8.754396882152736</v>
       </c>
       <c r="I19">
-        <v>23.95594604794697</v>
+        <v>13.12566592469684</v>
       </c>
       <c r="J19">
-        <v>11.64196947359261</v>
+        <v>8.288166980529084</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.18146509205751</v>
+        <v>10.42721950700792</v>
       </c>
       <c r="M19">
-        <v>15.49720000296152</v>
+        <v>14.21267857207922</v>
       </c>
       <c r="N19">
-        <v>18.75277466791431</v>
+        <v>13.97873488875296</v>
       </c>
       <c r="O19">
-        <v>20.36072370943493</v>
+        <v>15.57188224481808</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.72961555343617</v>
+        <v>18.12832018942431</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.16035930183163</v>
+        <v>6.54844472673987</v>
       </c>
       <c r="E20">
-        <v>16.87685412062721</v>
+        <v>11.84674977241771</v>
       </c>
       <c r="F20">
-        <v>28.13936055791556</v>
+        <v>20.87454632186584</v>
       </c>
       <c r="G20">
-        <v>27.18957958645476</v>
+        <v>28.19749177271725</v>
       </c>
       <c r="H20">
-        <v>13.46832484536879</v>
+        <v>8.802670386800791</v>
       </c>
       <c r="I20">
-        <v>23.91031740431891</v>
+        <v>12.98926324732902</v>
       </c>
       <c r="J20">
-        <v>11.64464281205865</v>
+        <v>8.309855011082236</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.22919004460104</v>
+        <v>10.61512965588688</v>
       </c>
       <c r="M20">
-        <v>15.5523382013692</v>
+        <v>14.47033957788688</v>
       </c>
       <c r="N20">
-        <v>18.74976722301884</v>
+        <v>13.99366339375815</v>
       </c>
       <c r="O20">
-        <v>20.36923744918538</v>
+        <v>15.73730177946931</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.0781327630437</v>
+        <v>19.1571221367466</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.12923399811878</v>
+        <v>6.482339754213025</v>
       </c>
       <c r="E21">
-        <v>16.87167405215075</v>
+        <v>11.90300031917929</v>
       </c>
       <c r="F21">
-        <v>28.14701277170685</v>
+        <v>21.52399474547723</v>
       </c>
       <c r="G21">
-        <v>27.47385566455841</v>
+        <v>29.70283705292592</v>
       </c>
       <c r="H21">
-        <v>13.45473698256706</v>
+        <v>8.971048105385321</v>
       </c>
       <c r="I21">
-        <v>23.76166490204073</v>
+        <v>12.53765831784345</v>
       </c>
       <c r="J21">
-        <v>11.65413023474561</v>
+        <v>8.38320435418815</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.38870434198612</v>
+        <v>11.22403791298793</v>
       </c>
       <c r="M21">
-        <v>15.73751500320558</v>
+        <v>15.30483343726304</v>
       </c>
       <c r="N21">
-        <v>18.74186258916993</v>
+        <v>14.04879931308476</v>
       </c>
       <c r="O21">
-        <v>20.40341110331261</v>
+        <v>16.29761161573494</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.30276304308056</v>
+        <v>19.80253286044378</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.10975302072276</v>
+        <v>6.440841252880449</v>
       </c>
       <c r="E22">
-        <v>16.86922279824457</v>
+        <v>11.94130144799948</v>
       </c>
       <c r="F22">
-        <v>28.15805009923668</v>
+        <v>21.95716828516872</v>
       </c>
       <c r="G22">
-        <v>27.66556810790421</v>
+        <v>30.67147673986422</v>
       </c>
       <c r="H22">
-        <v>13.44793967472874</v>
+        <v>9.085697481430964</v>
       </c>
       <c r="I22">
-        <v>23.66796768320614</v>
+        <v>12.24734749798797</v>
       </c>
       <c r="J22">
-        <v>11.6607024359804</v>
+        <v>8.4314679234311</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.49219713305588</v>
+        <v>11.60533175531523</v>
       </c>
       <c r="M22">
-        <v>15.8583348994794</v>
+        <v>15.82705870266476</v>
       </c>
       <c r="N22">
-        <v>18.7383285268488</v>
+        <v>14.08860886448154</v>
       </c>
       <c r="O22">
-        <v>20.42987235900175</v>
+        <v>16.6667582439452</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.18318281519578</v>
+        <v>19.46053743609929</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.12007177152686</v>
+        <v>6.462832171896076</v>
       </c>
       <c r="E23">
-        <v>16.87044600669163</v>
+        <v>11.92071985027008</v>
       </c>
       <c r="F23">
-        <v>28.15160780697861</v>
+        <v>21.72520452678203</v>
       </c>
       <c r="G23">
-        <v>27.56272483855698</v>
+        <v>30.15593205322661</v>
       </c>
       <c r="H23">
-        <v>13.45137703797448</v>
+        <v>9.024086081957872</v>
       </c>
       <c r="I23">
-        <v>23.71766024812073</v>
+        <v>12.40185857224867</v>
       </c>
       <c r="J23">
-        <v>11.65716105097912</v>
+        <v>8.405681023924123</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.43703918683482</v>
+        <v>11.40334798327659</v>
       </c>
       <c r="M23">
-        <v>15.79387890594026</v>
+        <v>15.55044992259601</v>
       </c>
       <c r="N23">
-        <v>18.74006588331957</v>
+        <v>14.06701220295488</v>
       </c>
       <c r="O23">
-        <v>20.41537352149748</v>
+        <v>16.46949296500582</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.72387098410747</v>
+        <v>18.11105098757875</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.160882609742</v>
+        <v>6.549553620965779</v>
       </c>
       <c r="E24">
-        <v>16.87695464860918</v>
+        <v>11.84585661985416</v>
       </c>
       <c r="F24">
-        <v>28.13933755341641</v>
+        <v>20.86408487506225</v>
       </c>
       <c r="G24">
-        <v>27.1850374126701</v>
+        <v>28.1726429850784</v>
       </c>
       <c r="H24">
-        <v>13.46858212280407</v>
+        <v>8.799996160620868</v>
       </c>
       <c r="I24">
-        <v>23.91280557275957</v>
+        <v>12.99672829562875</v>
       </c>
       <c r="J24">
-        <v>11.64449409112479</v>
+        <v>8.30866211604391</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.2265720064895</v>
+        <v>10.60489510540228</v>
       </c>
       <c r="M24">
-        <v>15.54931020644465</v>
+        <v>14.45630770921409</v>
       </c>
       <c r="N24">
-        <v>18.74992408214586</v>
+        <v>13.99282502920778</v>
       </c>
       <c r="O24">
-        <v>20.36874891059811</v>
+        <v>15.72819958333273</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.21718137393312</v>
+        <v>16.54042702737319</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>11.20862034775239</v>
+        <v>6.650272519713905</v>
       </c>
       <c r="E25">
-        <v>16.88802699188281</v>
+        <v>11.77182945204609</v>
       </c>
       <c r="F25">
-        <v>28.15207806801944</v>
+        <v>19.97553217199258</v>
       </c>
       <c r="G25">
-        <v>26.80492557496258</v>
+        <v>25.97418541636146</v>
       </c>
       <c r="H25">
-        <v>13.49609265737704</v>
+        <v>8.57806568074326</v>
       </c>
       <c r="I25">
-        <v>24.13822042872009</v>
+        <v>13.66011202916662</v>
       </c>
       <c r="J25">
-        <v>11.63245862912303</v>
+        <v>8.205622031727284</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.997184203331038</v>
+        <v>9.671719052753346</v>
       </c>
       <c r="M25">
-        <v>15.28556523368316</v>
+        <v>13.30578925147487</v>
       </c>
       <c r="N25">
-        <v>18.76761337479058</v>
+        <v>13.92858803859222</v>
       </c>
       <c r="O25">
-        <v>20.33631765764735</v>
+        <v>14.94409277517389</v>
       </c>
     </row>
   </sheetData>
